--- a/MechanicalTestingandAnalysis/Rae2021/TaQu.xlsx
+++ b/MechanicalTestingandAnalysis/Rae2021/TaQu.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/Mechanical Testing and Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/MechanicalTestingandAnalysis/Rae2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1A3B2-454D-4C41-87B8-D5D178111632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB745A0-C1E2-CA4B-8DEF-FD96E45634C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1780" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaQu" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="TaQu_inertialstresses" localSheetId="0">TaQu!$U$8:$X$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,8 +33,23 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{B86A37DB-5E5E-6047-8BD1-2D18AF5D7BA1}" name="TaQu_inertialstresses" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/auriolrae/Documents/SRDBRD/SHPB/TaQu_inertialstresses.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -163,6 +181,15 @@
   </si>
   <si>
     <t>TaQu_004</t>
+  </si>
+  <si>
+    <t>Max. Long. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Rad. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Hoop Inertial Stress (kPa)</t>
   </si>
 </sst>
 </file>
@@ -650,7 +677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,6 +772,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="TaQu_inertialstresses" connectionId="1" xr16:uid="{93ECC51E-7D72-8F40-AD5B-0BFD5B751E56}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,10 +1095,15 @@
     <col min="9" max="10" width="10.83203125" style="2"/>
     <col min="11" max="11" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="13" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1083,22 +1122,22 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,8 +1156,17 @@
       <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1156,7 +1204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1229,7 +1277,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1260,7 +1308,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1291,7 +1339,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1329,7 +1377,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1364,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -1415,8 +1463,18 @@
         <v>221.29999999999998</v>
       </c>
       <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>11.037770997548099</v>
+      </c>
+      <c r="V9" s="3">
+        <v>57.788081210046897</v>
+      </c>
+      <c r="W9" s="3">
+        <v>90.868767241779594</v>
+      </c>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -1467,8 +1525,18 @@
         <v>186.79999999999998</v>
       </c>
       <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>4.33185860168141</v>
+      </c>
+      <c r="V10" s="3">
+        <v>22.679379443550001</v>
+      </c>
+      <c r="W10" s="3">
+        <v>35.662150545425199</v>
+      </c>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1519,8 +1587,18 @@
         <v>202.10000000000002</v>
       </c>
       <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3">
+        <v>3.7319512836478501</v>
+      </c>
+      <c r="V11" s="3">
+        <v>19.538573856921499</v>
+      </c>
+      <c r="W11" s="3">
+        <v>30.7233962932178</v>
+      </c>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1571,8 +1649,18 @@
         <v>289.2</v>
       </c>
       <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>7.1749871662940601</v>
+      </c>
+      <c r="V12" s="3">
+        <v>37.564535551512002</v>
+      </c>
+      <c r="W12" s="3">
+        <v>59.0682882369601</v>
+      </c>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -1623,8 +1711,18 @@
         <v>172.29999999999998</v>
       </c>
       <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>43.933809876789603</v>
+      </c>
+      <c r="V13" s="3">
+        <v>230.014789543164</v>
+      </c>
+      <c r="W13" s="3">
+        <v>361.68635357858</v>
+      </c>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
@@ -1675,8 +1773,18 @@
         <v>308.3</v>
       </c>
       <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>20.515105066638501</v>
+      </c>
+      <c r="V14" s="3">
+        <v>107.406518751557</v>
+      </c>
+      <c r="W14" s="3">
+        <v>168.89119258364099</v>
+      </c>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
@@ -1727,8 +1835,18 @@
         <v>159.30000000000001</v>
       </c>
       <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>4.4259508952709998</v>
+      </c>
+      <c r="V15" s="3">
+        <v>23.1719982072843</v>
+      </c>
+      <c r="W15" s="3">
+        <v>36.436768058991703</v>
+      </c>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -1779,8 +1897,18 @@
         <v>348.4</v>
       </c>
       <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3">
+        <v>28.523158051167201</v>
+      </c>
+      <c r="V16" s="3">
+        <v>149.332557650815</v>
+      </c>
+      <c r="W16" s="3">
+        <v>234.817719132581</v>
+      </c>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
@@ -1831,8 +1959,18 @@
         <v>185.79999999999998</v>
       </c>
       <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>6.1728810611605196</v>
+      </c>
+      <c r="V17" s="3">
+        <v>32.318024367559801</v>
+      </c>
+      <c r="W17" s="3">
+        <v>50.818420900595399</v>
+      </c>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
@@ -1883,8 +2021,18 @@
         <v>187.2</v>
       </c>
       <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>12.680586601897501</v>
+      </c>
+      <c r="V18" s="3">
+        <v>66.389017176046494</v>
+      </c>
+      <c r="W18" s="3">
+        <v>104.39329396062099</v>
+      </c>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
@@ -1935,8 +2083,18 @@
         <v>100.1</v>
       </c>
       <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3">
+        <v>9.9382266227758098</v>
+      </c>
+      <c r="V19" s="3">
+        <v>52.031433455939002</v>
+      </c>
+      <c r="W19" s="3">
+        <v>81.816736547775506</v>
+      </c>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
@@ -1987,8 +2145,18 @@
         <v>168.2</v>
       </c>
       <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>3.97321785781519</v>
+      </c>
+      <c r="V20" s="3">
+        <v>20.8017213152579</v>
+      </c>
+      <c r="W20" s="3">
+        <v>32.7096303051486</v>
+      </c>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
@@ -2039,8 +2207,18 @@
         <v>197.20000000000002</v>
       </c>
       <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>3.4884366689866799</v>
+      </c>
+      <c r="V21" s="3">
+        <v>18.263656816968499</v>
+      </c>
+      <c r="W21" s="3">
+        <v>28.718655223256</v>
+      </c>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
@@ -2091,30 +2269,56 @@
         <v>146.4</v>
       </c>
       <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>3.1355130124663</v>
+      </c>
+      <c r="V22" s="3">
+        <v>16.4159304120199</v>
+      </c>
+      <c r="W22" s="3">
+        <v>25.8132010690077</v>
+      </c>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K25" s="3"/>
       <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K26" s="3"/>
       <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K28" s="3"/>
       <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T29" s="7"/>
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
